--- a/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4302,6 +4302,34 @@
         <v>192821428571.4286</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B309" t="n">
+        <v>704618000000</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="D309" t="n">
+        <v>193576373626.3736</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B310" t="n">
+        <v>696270000000</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="D310" t="n">
+        <v>191282967032.967</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4330,6 +4330,20 @@
         <v>191282967032.967</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B311" t="n">
+        <v>699178000000</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="D311" t="n">
+        <v>192081868131.8681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4344,6 +4344,20 @@
         <v>192081868131.8681</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B312" t="n">
+        <v>699090000000</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.2753857465845282</v>
+      </c>
+      <c r="D312" t="n">
+        <v>192519421579.7779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D312"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,6 +4358,20 @@
         <v>192519421579.7779</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B313" t="n">
+        <v>683929000000</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.2756833501040705</v>
+      </c>
+      <c r="D313" t="n">
+        <v>188547837953.3268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3607,13 +3607,13 @@
         <v>43466</v>
       </c>
       <c r="B259" t="n">
-        <v>562328300000</v>
+        <v>562328000000</v>
       </c>
       <c r="C259" t="n">
         <v>0.2747026343982639</v>
       </c>
       <c r="D259" t="n">
-        <v>154473065406.6972</v>
+        <v>154472982995.9069</v>
       </c>
     </row>
     <row r="260">
@@ -3649,13 +3649,13 @@
         <v>43556</v>
       </c>
       <c r="B262" t="n">
-        <v>557944300000</v>
+        <v>557944000000</v>
       </c>
       <c r="C262" t="n">
         <v>0.2748007694421545</v>
       </c>
       <c r="D262" t="n">
-        <v>153323522945.8643</v>
+        <v>153323440505.6335</v>
       </c>
     </row>
     <row r="263">
@@ -3663,13 +3663,13 @@
         <v>43586</v>
       </c>
       <c r="B263" t="n">
-        <v>554910700000</v>
+        <v>554911000000</v>
       </c>
       <c r="C263" t="n">
         <v>0.2747252747252747</v>
       </c>
       <c r="D263" t="n">
-        <v>152447994505.4945</v>
+        <v>152448076923.0769</v>
       </c>
     </row>
     <row r="264">
@@ -3691,13 +3691,13 @@
         <v>43647</v>
       </c>
       <c r="B265" t="n">
-        <v>554032700000</v>
+        <v>554033000000</v>
       </c>
       <c r="C265" t="n">
         <v>0.2747177275349578</v>
       </c>
       <c r="D265" t="n">
-        <v>152202604324.057</v>
+        <v>152202686739.3753</v>
       </c>
     </row>
     <row r="266">
@@ -3705,13 +3705,13 @@
         <v>43678</v>
       </c>
       <c r="B266" t="n">
-        <v>551532100000</v>
+        <v>551532000000</v>
       </c>
       <c r="C266" t="n">
         <v>0.2746271935847087</v>
       </c>
       <c r="D266" t="n">
-        <v>151465712794.8809</v>
+        <v>151465685332.1616</v>
       </c>
     </row>
     <row r="267">
@@ -4363,13 +4363,41 @@
         <v>45108</v>
       </c>
       <c r="B313" t="n">
-        <v>683929000000</v>
+        <v>683766000000</v>
       </c>
       <c r="C313" t="n">
         <v>0.2756833501040705</v>
       </c>
       <c r="D313" t="n">
-        <v>188547837953.3268</v>
+        <v>188502901567.2599</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B314" t="n">
+        <v>685009000000</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.2747003705707999</v>
+      </c>
+      <c r="D314" t="n">
+        <v>188172226144.3331</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B315" t="n">
+        <v>702188000000</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="D315" t="n">
+        <v>192908791208.7912</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Qatar.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4121,6 +4121,20 @@
         <v>192908791208.7912</v>
       </c>
     </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B316">
+        <v>721283000000</v>
+      </c>
+      <c r="C316">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="D316">
+        <v>198154670329.6703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
